--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ifng</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H2">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.50676733333333</v>
+        <v>46.38927966666667</v>
       </c>
       <c r="N2">
-        <v>151.520302</v>
+        <v>139.167839</v>
       </c>
       <c r="O2">
-        <v>0.1735091910064095</v>
+        <v>0.1490077759465061</v>
       </c>
       <c r="P2">
-        <v>0.1767350453178569</v>
+        <v>0.1506561784680905</v>
       </c>
       <c r="Q2">
-        <v>16.90309982344667</v>
+        <v>19.61321734904122</v>
       </c>
       <c r="R2">
-        <v>152.12789841102</v>
+        <v>176.518956141371</v>
       </c>
       <c r="S2">
-        <v>0.1735091910064095</v>
+        <v>0.1369004435325077</v>
       </c>
       <c r="T2">
-        <v>0.1767350453178569</v>
+        <v>0.1384149083642358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H3">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>127.976116</v>
       </c>
       <c r="O3">
-        <v>0.1465482319016392</v>
+        <v>0.1370247361492196</v>
       </c>
       <c r="P3">
-        <v>0.1492728325004481</v>
+        <v>0.1385405759713568</v>
       </c>
       <c r="Q3">
-        <v>14.27658891390667</v>
+        <v>18.03594419968044</v>
       </c>
       <c r="R3">
-        <v>128.48930022516</v>
+        <v>162.323497797124</v>
       </c>
       <c r="S3">
-        <v>0.1465482319016392</v>
+        <v>0.1258910619569773</v>
       </c>
       <c r="T3">
-        <v>0.1492728325004481</v>
+        <v>0.1272837352094748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H4">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.35863733333333</v>
+        <v>124.6999866666666</v>
       </c>
       <c r="N4">
-        <v>262.075912</v>
+        <v>374.09996</v>
       </c>
       <c r="O4">
-        <v>0.3001088228651165</v>
+        <v>0.4005508989851949</v>
       </c>
       <c r="P4">
-        <v>0.3056883966878491</v>
+        <v>0.4049820040581756</v>
       </c>
       <c r="Q4">
-        <v>29.23631515634667</v>
+        <v>52.72269712938221</v>
       </c>
       <c r="R4">
-        <v>263.12683640712</v>
+        <v>474.5042741644399</v>
       </c>
       <c r="S4">
-        <v>0.3001088228651165</v>
+        <v>0.3680049271261111</v>
       </c>
       <c r="T4">
-        <v>0.3056883966878491</v>
+        <v>0.3720759915116904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H5">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.939343</v>
+        <v>10.21895</v>
       </c>
       <c r="N5">
-        <v>31.878686</v>
+        <v>20.4379</v>
       </c>
       <c r="O5">
-        <v>0.05475746429881738</v>
+        <v>0.03282445907653739</v>
       </c>
       <c r="P5">
-        <v>0.03718367070627759</v>
+        <v>0.02212505369083864</v>
       </c>
       <c r="Q5">
-        <v>5.33441992181</v>
+        <v>4.320534590516666</v>
       </c>
       <c r="R5">
-        <v>32.00651953086</v>
+        <v>25.9232075431</v>
       </c>
       <c r="S5">
-        <v>0.05475746429881738</v>
+        <v>0.0301573725112564</v>
       </c>
       <c r="T5">
-        <v>0.03718367070627759</v>
+        <v>0.02032732616949966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H6">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.62641400000001</v>
+        <v>87.35427866666667</v>
       </c>
       <c r="N6">
-        <v>283.879242</v>
+        <v>262.062836</v>
       </c>
       <c r="O6">
-        <v>0.3250762899280173</v>
+        <v>0.2805921298425419</v>
       </c>
       <c r="P6">
-        <v>0.3311200547875683</v>
+        <v>0.2836961878115384</v>
       </c>
       <c r="Q6">
-        <v>31.66862197338001</v>
+        <v>36.93306872124489</v>
       </c>
       <c r="R6">
-        <v>285.0175977604201</v>
+        <v>332.397618491204</v>
       </c>
       <c r="S6">
-        <v>0.3250762899280173</v>
+        <v>0.2577931707467759</v>
       </c>
       <c r="T6">
-        <v>0.3311200547875683</v>
+        <v>0.2606450146187279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.112175</v>
+      </c>
+      <c r="I7">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J7">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>46.38927966666667</v>
+      </c>
+      <c r="N7">
+        <v>139.167839</v>
+      </c>
+      <c r="O7">
+        <v>0.1490077759465061</v>
+      </c>
+      <c r="P7">
+        <v>0.1506561784680905</v>
+      </c>
+      <c r="Q7">
+        <v>1.734572482202778</v>
+      </c>
+      <c r="R7">
+        <v>15.611152339825</v>
+      </c>
+      <c r="S7">
+        <v>0.01210733241399842</v>
+      </c>
+      <c r="T7">
+        <v>0.0122412701038547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.112175</v>
+      </c>
+      <c r="I8">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J8">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>42.65870533333333</v>
+      </c>
+      <c r="N8">
+        <v>127.976116</v>
+      </c>
+      <c r="O8">
+        <v>0.1370247361492196</v>
+      </c>
+      <c r="P8">
+        <v>0.1385405759713568</v>
+      </c>
+      <c r="Q8">
+        <v>1.595080090255555</v>
+      </c>
+      <c r="R8">
+        <v>14.3557208123</v>
+      </c>
+      <c r="S8">
+        <v>0.01113367419224223</v>
+      </c>
+      <c r="T8">
+        <v>0.01125684076188207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.112175</v>
+      </c>
+      <c r="I9">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J9">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>124.6999866666666</v>
+      </c>
+      <c r="N9">
+        <v>374.09996</v>
+      </c>
+      <c r="O9">
+        <v>0.4005508989851949</v>
+      </c>
+      <c r="P9">
+        <v>0.4049820040581756</v>
+      </c>
+      <c r="Q9">
+        <v>4.662740334777776</v>
+      </c>
+      <c r="R9">
+        <v>41.96466301299999</v>
+      </c>
+      <c r="S9">
+        <v>0.03254597185908385</v>
+      </c>
+      <c r="T9">
+        <v>0.03290601254648524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.112175</v>
+      </c>
+      <c r="I10">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J10">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.21895</v>
+      </c>
+      <c r="N10">
+        <v>20.4379</v>
+      </c>
+      <c r="O10">
+        <v>0.03282445907653739</v>
+      </c>
+      <c r="P10">
+        <v>0.02212505369083864</v>
+      </c>
+      <c r="Q10">
+        <v>0.3821035720833333</v>
+      </c>
+      <c r="R10">
+        <v>2.2926214325</v>
+      </c>
+      <c r="S10">
+        <v>0.002667086565280987</v>
+      </c>
+      <c r="T10">
+        <v>0.001797727521338978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.112175</v>
+      </c>
+      <c r="I11">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J11">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>87.35427866666667</v>
+      </c>
+      <c r="N11">
+        <v>262.062836</v>
+      </c>
+      <c r="O11">
+        <v>0.2805921298425419</v>
+      </c>
+      <c r="P11">
+        <v>0.2836961878115384</v>
+      </c>
+      <c r="Q11">
+        <v>3.266322069811111</v>
+      </c>
+      <c r="R11">
+        <v>29.3968986283</v>
+      </c>
+      <c r="S11">
+        <v>0.02279895909576603</v>
+      </c>
+      <c r="T11">
+        <v>0.02305117319281057</v>
       </c>
     </row>
   </sheetData>
